--- a/design.1/テーブル定義書（ポートフォリオ）.xlsx
+++ b/design.1/テーブル定義書（ポートフォリオ）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="286" documentId="11_31802F1733C7A0836B02CE998F682C9D7A7B838F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98AB2932-117A-44C9-BF8D-A07CBAD24098}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_31802F1733C7A0836B02CE998F682C9D7A7B838F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0054DA-AD99-4AD5-9AD8-256DEE08089E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -42,7 +42,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社xxxxxx様</t>
+    <t>株式会社 山本様</t>
   </si>
   <si>
     <t>システム名</t>
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,24 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1049,6 +1031,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,13 +1137,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1497,7 +1473,7 @@
   <dimension ref="A1:AF43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1506,1498 +1482,1498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="40"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="34"/>
     </row>
     <row r="2" spans="1:32" ht="30">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="45"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="39"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="45"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="39"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="45"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="39"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="45"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="39"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="45"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="39"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="45"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="39"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="98" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="45"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="41"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="45"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="39"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="41"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="45"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="45"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="39"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="45"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="39"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="45"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="39"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="45"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="39"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="45"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="39"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="45"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="39"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="60" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="45"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="39"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="45"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="39"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="45"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="39"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="45"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="39"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="45"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="39"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="45"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="39"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="41"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="45"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="45"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="39"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="41"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="50" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="50" t="s">
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="54" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AD25" s="52" t="s">
+      <c r="AD25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="45"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="39"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="41"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="61">
-        <v>45247</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="50" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="56">
+        <v>45317</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="54" t="s">
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AD26" s="52" t="s">
+      <c r="AD26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="45"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="39"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="41"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="45"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="39"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="41"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="45"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="39"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="41"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="45"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="39"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="41"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="45"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="39"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="41"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="45"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="39"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="41"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="45"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="39"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="41"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="45"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="39"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="41"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="45"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="39"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="41"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="45"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="39"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="41"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="45"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="39"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="41"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="45"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="39"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="41"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="45"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="39"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="41"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="45"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="39"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="41"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="45"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="39"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="41"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="45"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="39"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="41"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="45"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="39"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="58"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3016,7 +2992,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3038,100 +3014,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" ht="18.75">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="3"/>
@@ -3151,301 +3127,302 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="44.25" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76" t="s">
+      <c r="L6" s="70"/>
+      <c r="M6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A7" s="20">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-    </row>
-    <row r="12" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A12" s="27">
+      <c r="L11" s="78"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+    </row>
+    <row r="12" spans="1:15" ht="39.75" customHeight="1">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:15" ht="18.75"/>
     <row r="15" spans="1:15" ht="30">
-      <c r="D15" s="59"/>
-      <c r="E15" s="97"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:15" ht="18.75"/>
     <row r="17" ht="18.75"/>
@@ -3482,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9ACC4B-0AAF-44B9-A608-D0DDF1A2ECAC}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3506,100 +3483,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="17" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
@@ -3619,292 +3596,224 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="43.5" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76" t="s">
+      <c r="L6" s="70"/>
+      <c r="M6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A7" s="20">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15" ht="39" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-    </row>
-    <row r="9" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A9" s="27">
+      <c r="L8" s="76"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="9" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-    </row>
-    <row r="10" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A10" s="27">
+      <c r="L9" s="78"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-    </row>
-    <row r="11" spans="1:15" ht="37.5" customHeight="1">
-      <c r="A11" s="27">
+      <c r="L10" s="78"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-    </row>
-    <row r="12" spans="1:15" ht="51" customHeight="1">
-      <c r="A12" s="27">
-        <v>6</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="14">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-    </row>
-    <row r="15" spans="1:15" ht="25.5">
-      <c r="E15" s="97"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+    </row>
+    <row r="13" spans="1:15" ht="30">
+      <c r="E13" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -3912,18 +3821,16 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:O4"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:O13"/>
+    <mergeCell ref="M6:M11"/>
+    <mergeCell ref="N6:O11"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
